--- a/web-interface/resultados.xlsx
+++ b/web-interface/resultados.xlsx
@@ -553,7 +553,7 @@
 Excelente ambiente de trabajo.</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>Monitora en inclusión educativa (maestro sombra)</v>
       </c>
@@ -570,25 +570,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>Educación</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>Educación especial</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>Universitario sin titulo</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>Permanente</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>Tiempo completo</v>
       </c>
       <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
+        <v>Presencial</v>
+      </c>
+      <c r="L4" t="str" xml:space="preserve">
+        <v xml:space="preserve">REQUISITOS:
+Nivel de estudios: Licenciatura (concluida o últimos semestres) Psicología educativa, Pedagogía, Educación especial o afines
+23 a 32 años
+Sexo indistinto
+Estado civil indistinto
+EXPERIENCIA:
+Deseable con niños con autismo, trastornos del neurodesarrollo y/o alguna discapacidad
+HABILIDADES Y COMPETENCIAS:
+Proactiva, comunicación asertiva, responsable, puntual.
+Empatía y sensibilidad emocional, paciencia, tolerancia a la frustración, vocación infantil, compromiso y responsabilidad.
+HORARIO DE TRABAJO:
+De lunes a viernes
+Interesados enviar cv a la dirección de contacto.</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
